--- a/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
+++ b/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\BGSaWC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\endo-learn\BGSaWC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C2C575-518F-4655-8799-2DDC3F3A1CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA982CF-0EBE-4F28-8898-75DEFF6B6E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>BGSaWC BAU Global Solar and Wind Capacities</t>
   </si>
@@ -137,18 +137,6 @@
     <t>Solar and Wind</t>
   </si>
   <si>
-    <t>International Renewable Energy Agency</t>
-  </si>
-  <si>
-    <t>Global Renewables Outlook</t>
-  </si>
-  <si>
-    <t>https://www.irena.org/publications/2020/Apr/Global-Renewables-Outlook-2020</t>
-  </si>
-  <si>
-    <t>Figure S.4</t>
-  </si>
-  <si>
     <t>We assume solar capacity reported be IEA is already in AC.</t>
   </si>
   <si>
@@ -198,6 +186,15 @@
   </si>
   <si>
     <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>https://www.iea.org/data-and-statistics/data-product/world-energy-outlook-2023-free-dataset-2#data-files</t>
+  </si>
+  <si>
+    <t>Global Data Set</t>
+  </si>
+  <si>
+    <t>World Energy Outlook 2023 Free Dataset</t>
   </si>
 </sst>
 </file>
@@ -408,55 +405,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>532008</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>151590</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190499" y="1819275"/>
-          <a:ext cx="11123809" cy="6476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1176,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,32 +1148,32 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,28 +1208,27 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1291,7 +1238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1300,7 +1249,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1">
         <v>2030</v>
@@ -1311,30 +1260,30 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2">
-        <v>582</v>
+        <v>924.78</v>
       </c>
       <c r="C2">
-        <v>2037</v>
+        <v>4698.96</v>
       </c>
       <c r="D2">
-        <v>4474</v>
+        <v>12639</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>624</v>
+        <v>827</v>
       </c>
       <c r="C3">
-        <v>1455</v>
+        <v>2064</v>
       </c>
       <c r="D3">
-        <v>2434</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -1437,273 +1386,272 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B6">
-        <f>TREND($B$2:$C$2,$B$1:$C$1,B5)*1000</f>
-        <v>582000</v>
+        <f t="shared" ref="B6:C6" si="0">TREND($B$2:$C$2,$B$1:$C$1,B5)*1000</f>
+        <v>86073.33333324641</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:M6" si="0">TREND($B$2:$C$2,$B$1:$C$1,C5)*1000</f>
-        <v>714272.72727276431</v>
+        <f t="shared" si="0"/>
+        <v>505426.66666663717</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>846545.45454547042</v>
+        <f>TREND($B$2:$C$2,$B$1:$C$1,D5)*1000</f>
+        <v>924779.99999991152</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>978818.18181823473</v>
+        <f t="shared" ref="E6:M6" si="1">TREND($B$2:$C$2,$B$1:$C$1,E5)*1000</f>
+        <v>1344133.3333333023</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1111090.9090909408</v>
+        <f t="shared" si="1"/>
+        <v>1763486.6666665766</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1243363.6363636469</v>
+        <f t="shared" si="1"/>
+        <v>2182839.9999999674</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>1375636.3636364113</v>
+        <f t="shared" si="1"/>
+        <v>2602193.3333332418</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1507909.0909091174</v>
+        <f t="shared" si="1"/>
+        <v>3021546.6666666325</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1640181.8181818235</v>
+        <f t="shared" si="1"/>
+        <v>3440899.9999999069</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>1772454.5454545878</v>
+        <f t="shared" si="1"/>
+        <v>3860253.3333332976</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>1904727.2727272939</v>
+        <f t="shared" si="1"/>
+        <v>4279606.666666572</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>2037000</v>
+        <f t="shared" si="1"/>
+        <v>4698959.9999999627</v>
       </c>
       <c r="N6">
         <f>TREND($C$2:$D$2,$C$1:$D$1,N5)*1000</f>
-        <v>2158849.9999999767</v>
+        <v>5095961.9999999413</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:AG6" si="1">TREND($C$2:$D$2,$C$1:$D$1,O5)*1000</f>
-        <v>2280699.9999999823</v>
+        <f t="shared" ref="O6:AG6" si="2">TREND($C$2:$D$2,$C$1:$D$1,O5)*1000</f>
+        <v>5492963.9999999199</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
-        <v>2402549.9999999884</v>
+        <f t="shared" si="2"/>
+        <v>5889965.9999998985</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>2524399.9999999944</v>
+        <f t="shared" si="2"/>
+        <v>6286967.9999998771</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
-        <v>2646250</v>
+        <f t="shared" si="2"/>
+        <v>6683969.9999999721</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
-        <v>2768099.9999999767</v>
+        <f t="shared" si="2"/>
+        <v>7080971.9999999506</v>
       </c>
       <c r="T6">
-        <f t="shared" si="1"/>
-        <v>2889949.9999999823</v>
+        <f t="shared" si="2"/>
+        <v>7477973.9999999292</v>
       </c>
       <c r="U6">
-        <f t="shared" si="1"/>
-        <v>3011799.9999999884</v>
+        <f t="shared" si="2"/>
+        <v>7874975.9999999078</v>
       </c>
       <c r="V6">
-        <f t="shared" si="1"/>
-        <v>3133649.9999999944</v>
+        <f t="shared" si="2"/>
+        <v>8271977.9999998864</v>
       </c>
       <c r="W6">
-        <f t="shared" si="1"/>
-        <v>3255500</v>
+        <f t="shared" si="2"/>
+        <v>8668979.9999999814</v>
       </c>
       <c r="X6">
-        <f t="shared" si="1"/>
-        <v>3377349.9999999767</v>
+        <f t="shared" si="2"/>
+        <v>9065981.999999959</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="1"/>
-        <v>3499199.9999999823</v>
+        <f t="shared" si="2"/>
+        <v>9462983.9999999385</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="1"/>
-        <v>3621049.9999999884</v>
+        <f t="shared" si="2"/>
+        <v>9859985.999999918</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="1"/>
-        <v>3742899.9999999944</v>
+        <f t="shared" si="2"/>
+        <v>10256987.999999896</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="1"/>
-        <v>3864750</v>
+        <f t="shared" si="2"/>
+        <v>10653989.999999873</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="1"/>
-        <v>3986599.9999999767</v>
+        <f t="shared" si="2"/>
+        <v>11050991.99999997</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="1"/>
-        <v>4108449.9999999823</v>
+        <f t="shared" si="2"/>
+        <v>11447993.999999948</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="1"/>
-        <v>4230299.9999999888</v>
+        <f t="shared" si="2"/>
+        <v>11844995.999999925</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="1"/>
-        <v>4352149.9999999944</v>
+        <f t="shared" si="2"/>
+        <v>12241997.999999905</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="1"/>
-        <v>4474000</v>
+        <f t="shared" si="2"/>
+        <v>12638999.999999885</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <f>TREND($B$3:$C$3,$B$1:$C$1,B5)*1000</f>
-        <v>624000</v>
+        <f t="shared" ref="B7:C7" si="3">TREND($B$3:$C$3,$B$1:$C$1,B5)*1000</f>
+        <v>552111.11111112405</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:M7" si="2">TREND($B$3:$C$3,$B$1:$C$1,C5)*1000</f>
-        <v>699545.45454544132</v>
+        <f t="shared" si="3"/>
+        <v>689555.55555556202</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
-        <v>775090.90909091174</v>
+        <f t="shared" ref="D7:M7" si="4">TREND($B$3:$C$3,$B$1:$C$1,D5)*1000</f>
+        <v>827000</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>850636.36363635305</v>
+        <f t="shared" si="4"/>
+        <v>964444.44444443798</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>926181.81818182347</v>
+        <f t="shared" si="4"/>
+        <v>1101888.888888876</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
-        <v>1001727.2727272648</v>
+        <f t="shared" si="4"/>
+        <v>1239333.3333333139</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>1077272.7272727352</v>
+        <f t="shared" si="4"/>
+        <v>1376777.7777777519</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
-        <v>1152818.1818181765</v>
+        <f t="shared" si="4"/>
+        <v>1514222.2222222481</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
-        <v>1228363.6363636178</v>
+        <f t="shared" si="4"/>
+        <v>1651666.6666666861</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
-        <v>1303909.0909090883</v>
+        <f t="shared" si="4"/>
+        <v>1789111.111111124</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
-        <v>1379454.5454545296</v>
+        <f t="shared" si="4"/>
+        <v>1926555.555555562</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
-        <v>1455000</v>
+        <f t="shared" si="4"/>
+        <v>2064000</v>
       </c>
       <c r="N7">
         <f>TREND($C$3:$D$3,$C$1:$D$1,N5)*1000</f>
-        <v>1503950.0000000116</v>
+        <v>2154500</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:AG7" si="3">TREND($C$3:$D$3,$C$1:$D$1,O5)*1000</f>
-        <v>1552900.0000000088</v>
+        <f t="shared" ref="O7:AG7" si="5">TREND($C$3:$D$3,$C$1:$D$1,O5)*1000</f>
+        <v>2245000</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
-        <v>1601850.0000000058</v>
+        <f t="shared" si="5"/>
+        <v>2335500</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>1650800.0000000028</v>
+        <f t="shared" si="5"/>
+        <v>2426000</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
-        <v>1699750</v>
+        <f t="shared" si="5"/>
+        <v>2516500</v>
       </c>
       <c r="S7">
-        <f t="shared" si="3"/>
-        <v>1748700.0000000116</v>
+        <f t="shared" si="5"/>
+        <v>2607000</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
-        <v>1797650.0000000088</v>
+        <f t="shared" si="5"/>
+        <v>2697500</v>
       </c>
       <c r="U7">
-        <f t="shared" si="3"/>
-        <v>1846600.0000000058</v>
+        <f t="shared" si="5"/>
+        <v>2788000</v>
       </c>
       <c r="V7">
-        <f t="shared" si="3"/>
-        <v>1895550.0000000028</v>
+        <f t="shared" si="5"/>
+        <v>2878500</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
-        <v>1944500</v>
+        <f t="shared" si="5"/>
+        <v>2969000</v>
       </c>
       <c r="X7">
-        <f t="shared" si="3"/>
-        <v>1993450.0000000116</v>
+        <f t="shared" si="5"/>
+        <v>3059500</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="3"/>
-        <v>2042400.0000000088</v>
+        <f t="shared" si="5"/>
+        <v>3150000</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="3"/>
-        <v>2091350.0000000058</v>
+        <f t="shared" si="5"/>
+        <v>3240500</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="3"/>
-        <v>2140300.0000000028</v>
+        <f t="shared" si="5"/>
+        <v>3331000</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="3"/>
-        <v>2189250</v>
+        <f t="shared" si="5"/>
+        <v>3421500</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="3"/>
-        <v>2238200.0000000116</v>
+        <f t="shared" si="5"/>
+        <v>3512000</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="3"/>
-        <v>2287150.0000000088</v>
+        <f t="shared" si="5"/>
+        <v>3602500</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="3"/>
-        <v>2336100.0000000056</v>
+        <f t="shared" si="5"/>
+        <v>3693000</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="3"/>
-        <v>2385050.0000000028</v>
+        <f t="shared" si="5"/>
+        <v>3783500</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="3"/>
-        <v>2434000</v>
+        <f t="shared" si="5"/>
+        <v>3874000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2143,7 +2091,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <f>D10/D9</f>
@@ -2596,7 +2544,7 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2623,7 +2571,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2631,7 +2579,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2659,7 +2607,7 @@
       </c>
       <c r="B7" s="14">
         <f>'Global Renewables Outlook'!C7*(1-'IEA 2017 Wind'!J12)</f>
-        <v>681371.59811876004</v>
+        <v>671641.2319280426</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -2698,7 +2646,7 @@
       </c>
       <c r="B8" s="14">
         <f>'Global Renewables Outlook'!C6</f>
-        <v>714272.72727276431</v>
+        <v>505426.66666663717</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -2785,7 +2733,7 @@
       </c>
       <c r="B15" s="14">
         <f>'Global Renewables Outlook'!C7*'IEA 2017 Wind'!J12</f>
-        <v>18173.856426681279</v>
+        <v>17914.323627519447</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -2844,7 +2792,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2852,7 +2800,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2860,7 +2808,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2868,7 +2816,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2876,7 +2824,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2884,7 +2832,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2892,7 +2840,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3111,7 +3059,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3206,7 +3154,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3495,123 +3443,123 @@
       </c>
       <c r="B7" s="14">
         <f>'Global Renewables Outlook'!D7*(1-'IEA 2017 Wind'!K12)</f>
-        <v>754938.35798369965</v>
+        <v>805497.79997392592</v>
       </c>
       <c r="C7" s="14">
         <f>'Global Renewables Outlook'!E7*(1-'IEA 2017 Wind'!L12)</f>
-        <v>828504.48238323536</v>
+        <v>939351.50128782692</v>
       </c>
       <c r="D7" s="14">
         <f>'Global Renewables Outlook'!F7*(1-'IEA 2017 Wind'!M12)</f>
-        <v>902070.09733831172</v>
+        <v>1073202.9043792556</v>
       </c>
       <c r="E7" s="14">
         <f>'Global Renewables Outlook'!G7*(1-'IEA 2017 Wind'!N12)</f>
-        <v>975635.29761384299</v>
+        <v>1207052.4367550183</v>
       </c>
       <c r="F7" s="14">
         <f>'Global Renewables Outlook'!H7*(1-'IEA 2017 Wind'!O12)</f>
-        <v>1049200.1558433597</v>
+        <v>1340900.4260815941</v>
       </c>
       <c r="G7" s="14">
         <f>'Global Renewables Outlook'!I7*(1-'IEA 2017 Wind'!P12)</f>
-        <v>1121222.8094770459</v>
+        <v>1472721.822876645</v>
       </c>
       <c r="H7" s="14">
         <f>'Global Renewables Outlook'!J7*(1-'IEA 2017 Wind'!Q12)</f>
-        <v>1193207.4250556889</v>
+        <v>1604395.369613728</v>
       </c>
       <c r="I7" s="14">
         <f>'Global Renewables Outlook'!K7*(1-'IEA 2017 Wind'!R12)</f>
-        <v>1265159.4382497929</v>
+        <v>1735942.1941921487</v>
       </c>
       <c r="J7" s="14">
         <f>'Global Renewables Outlook'!L7*(1-'IEA 2017 Wind'!S12)</f>
-        <v>1337083.296137417</v>
+        <v>1867379.5819530278</v>
       </c>
       <c r="K7" s="14">
         <f>'Global Renewables Outlook'!M7*(1-'IEA 2017 Wind'!T12)</f>
-        <v>1408982.6721757923</v>
+        <v>1998721.8112514331</v>
       </c>
       <c r="L7" s="14">
         <f>'Global Renewables Outlook'!N7*(1-'IEA 2017 Wind'!U12)</f>
-        <v>1454354.0181945674</v>
+        <v>2083450.734532512</v>
       </c>
       <c r="M7" s="14">
         <f>'Global Renewables Outlook'!O7*(1-'IEA 2017 Wind'!V12)</f>
-        <v>1499746.3552090656</v>
+        <v>2168156.7180400109</v>
       </c>
       <c r="N7" s="14">
         <f>'Global Renewables Outlook'!P7*(1-'IEA 2017 Wind'!W12)</f>
-        <v>1545157.4640270318</v>
+        <v>2252842.186993239</v>
       </c>
       <c r="O7" s="14">
         <f>'Global Renewables Outlook'!Q7*(1-'IEA 2017 Wind'!X12)</f>
-        <v>1590585.4276282906</v>
+        <v>2337509.2363861315</v>
       </c>
       <c r="P7" s="14">
         <f>'Global Renewables Outlook'!R7*(1-'IEA 2017 Wind'!Y12)</f>
-        <v>1636028.58142701</v>
+        <v>2422159.6853425922</v>
       </c>
       <c r="Q7" s="14">
         <f>'Global Renewables Outlook'!S7*(1-'IEA 2017 Wind'!Z12)</f>
-        <v>1680197.7520111771</v>
+        <v>2504875.3585481266</v>
       </c>
       <c r="R7" s="14">
         <f>'Global Renewables Outlook'!T7*(1-'IEA 2017 Wind'!AA12)</f>
-        <v>1724348.2566176786</v>
+        <v>2587505.5890891803</v>
       </c>
       <c r="S7" s="14">
         <f>'Global Renewables Outlook'!U7*(1-'IEA 2017 Wind'!AB12)</f>
-        <v>1768481.4155999315</v>
+        <v>2670056.4208234558</v>
       </c>
       <c r="T7" s="14">
         <f>'Global Renewables Outlook'!V7*(1-'IEA 2017 Wind'!AC12)</f>
-        <v>1812598.4276515185</v>
+        <v>2752533.3407163559</v>
       </c>
       <c r="U7" s="14">
         <f>'Global Renewables Outlook'!W7*(1-'IEA 2017 Wind'!AD12)</f>
-        <v>1856700.3835031393</v>
+        <v>2834941.3415380921</v>
       </c>
       <c r="V7" s="14">
         <f>'Global Renewables Outlook'!X7*(1-'IEA 2017 Wind'!AE12)</f>
-        <v>1899173.3917596261</v>
+        <v>2914806.4872901463</v>
       </c>
       <c r="W7" s="14">
         <f>'Global Renewables Outlook'!Y7*(1-'IEA 2017 Wind'!AF12)</f>
-        <v>1941610.9600069062</v>
+        <v>2994552.7438414255</v>
       </c>
       <c r="X7" s="14">
         <f>'Global Renewables Outlook'!Z7*(1-'IEA 2017 Wind'!AG12)</f>
-        <v>1984015.1641012894</v>
+        <v>3074187.0749851582</v>
       </c>
       <c r="Y7" s="14">
         <f>'Global Renewables Outlook'!AA7*(1-'IEA 2017 Wind'!AH12)</f>
-        <v>2026387.9208827256</v>
+        <v>3153715.9110687054</v>
       </c>
       <c r="Z7" s="14">
         <f>'Global Renewables Outlook'!AB7*(1-'IEA 2017 Wind'!AI12)</f>
-        <v>2068731.0031150684</v>
+        <v>3233145.1991130328</v>
       </c>
       <c r="AA7" s="14">
         <f>'Global Renewables Outlook'!AC7*(1-'IEA 2017 Wind'!AJ12)</f>
-        <v>2109832.2301834417</v>
+        <v>3310575.8164615356</v>
       </c>
       <c r="AB7" s="14">
         <f>'Global Renewables Outlook'!AD7*(1-'IEA 2017 Wind'!AK12)</f>
-        <v>2150994.4197746827</v>
+        <v>3388040.7481967793</v>
       </c>
       <c r="AC7" s="14">
         <f>'Global Renewables Outlook'!AE7*(1-'IEA 2017 Wind'!AL12)</f>
-        <v>2192212.7308672476</v>
+        <v>3465537.2694202843</v>
       </c>
       <c r="AD7" s="14">
         <f>'Global Renewables Outlook'!AF7*(1-'IEA 2017 Wind'!AM12)</f>
-        <v>2233482.8217879166</v>
+        <v>3543062.9363051392</v>
       </c>
       <c r="AE7" s="14">
         <f>'Global Renewables Outlook'!AG7*(1-'IEA 2017 Wind'!AN12)</f>
-        <v>2274800.7874460295</v>
+        <v>3620615.5507666054</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -3620,123 +3568,123 @@
       </c>
       <c r="B8" s="14">
         <f>'Global Renewables Outlook'!D6</f>
-        <v>846545.45454547042</v>
+        <v>924779.99999991152</v>
       </c>
       <c r="C8" s="14">
         <f>'Global Renewables Outlook'!E6</f>
-        <v>978818.18181823473</v>
+        <v>1344133.3333333023</v>
       </c>
       <c r="D8" s="14">
         <f>'Global Renewables Outlook'!F6</f>
-        <v>1111090.9090909408</v>
+        <v>1763486.6666665766</v>
       </c>
       <c r="E8" s="14">
         <f>'Global Renewables Outlook'!G6</f>
-        <v>1243363.6363636469</v>
+        <v>2182839.9999999674</v>
       </c>
       <c r="F8" s="14">
         <f>'Global Renewables Outlook'!H6</f>
-        <v>1375636.3636364113</v>
+        <v>2602193.3333332418</v>
       </c>
       <c r="G8" s="14">
         <f>'Global Renewables Outlook'!I6</f>
-        <v>1507909.0909091174</v>
+        <v>3021546.6666666325</v>
       </c>
       <c r="H8" s="14">
         <f>'Global Renewables Outlook'!J6</f>
-        <v>1640181.8181818235</v>
+        <v>3440899.9999999069</v>
       </c>
       <c r="I8" s="14">
         <f>'Global Renewables Outlook'!K6</f>
-        <v>1772454.5454545878</v>
+        <v>3860253.3333332976</v>
       </c>
       <c r="J8" s="14">
         <f>'Global Renewables Outlook'!L6</f>
-        <v>1904727.2727272939</v>
+        <v>4279606.666666572</v>
       </c>
       <c r="K8" s="14">
         <f>'Global Renewables Outlook'!M6</f>
-        <v>2037000</v>
+        <v>4698959.9999999627</v>
       </c>
       <c r="L8" s="14">
         <f>'Global Renewables Outlook'!N6</f>
-        <v>2158849.9999999767</v>
+        <v>5095961.9999999413</v>
       </c>
       <c r="M8" s="14">
         <f>'Global Renewables Outlook'!O6</f>
-        <v>2280699.9999999823</v>
+        <v>5492963.9999999199</v>
       </c>
       <c r="N8" s="14">
         <f>'Global Renewables Outlook'!P6</f>
-        <v>2402549.9999999884</v>
+        <v>5889965.9999998985</v>
       </c>
       <c r="O8" s="14">
         <f>'Global Renewables Outlook'!Q6</f>
-        <v>2524399.9999999944</v>
+        <v>6286967.9999998771</v>
       </c>
       <c r="P8" s="14">
         <f>'Global Renewables Outlook'!R6</f>
-        <v>2646250</v>
+        <v>6683969.9999999721</v>
       </c>
       <c r="Q8" s="14">
         <f>'Global Renewables Outlook'!S6</f>
-        <v>2768099.9999999767</v>
+        <v>7080971.9999999506</v>
       </c>
       <c r="R8" s="14">
         <f>'Global Renewables Outlook'!T6</f>
-        <v>2889949.9999999823</v>
+        <v>7477973.9999999292</v>
       </c>
       <c r="S8" s="14">
         <f>'Global Renewables Outlook'!U6</f>
-        <v>3011799.9999999884</v>
+        <v>7874975.9999999078</v>
       </c>
       <c r="T8" s="14">
         <f>'Global Renewables Outlook'!V6</f>
-        <v>3133649.9999999944</v>
+        <v>8271977.9999998864</v>
       </c>
       <c r="U8" s="14">
         <f>'Global Renewables Outlook'!W6</f>
-        <v>3255500</v>
+        <v>8668979.9999999814</v>
       </c>
       <c r="V8" s="14">
         <f>'Global Renewables Outlook'!X6</f>
-        <v>3377349.9999999767</v>
+        <v>9065981.999999959</v>
       </c>
       <c r="W8" s="14">
         <f>'Global Renewables Outlook'!Y6</f>
-        <v>3499199.9999999823</v>
+        <v>9462983.9999999385</v>
       </c>
       <c r="X8" s="14">
         <f>'Global Renewables Outlook'!Z6</f>
-        <v>3621049.9999999884</v>
+        <v>9859985.999999918</v>
       </c>
       <c r="Y8" s="14">
         <f>'Global Renewables Outlook'!AA6</f>
-        <v>3742899.9999999944</v>
+        <v>10256987.999999896</v>
       </c>
       <c r="Z8" s="14">
         <f>'Global Renewables Outlook'!AB6</f>
-        <v>3864750</v>
+        <v>10653989.999999873</v>
       </c>
       <c r="AA8" s="14">
         <f>'Global Renewables Outlook'!AC6</f>
-        <v>3986599.9999999767</v>
+        <v>11050991.99999997</v>
       </c>
       <c r="AB8" s="14">
         <f>'Global Renewables Outlook'!AD6</f>
-        <v>4108449.9999999823</v>
+        <v>11447993.999999948</v>
       </c>
       <c r="AC8" s="14">
         <f>'Global Renewables Outlook'!AE6</f>
-        <v>4230299.9999999888</v>
+        <v>11844995.999999925</v>
       </c>
       <c r="AD8" s="14">
         <f>'Global Renewables Outlook'!AF6</f>
-        <v>4352149.9999999944</v>
+        <v>12241997.999999905</v>
       </c>
       <c r="AE8" s="14">
         <f>'Global Renewables Outlook'!AG6</f>
-        <v>4474000</v>
+        <v>12638999.999999885</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -4315,123 +4263,123 @@
       </c>
       <c r="B15" s="14">
         <f>'Global Renewables Outlook'!D7*'IEA 2017 Wind'!K12</f>
-        <v>20152.551107212112</v>
+        <v>21502.200026074122</v>
       </c>
       <c r="C15" s="14">
         <f>'Global Renewables Outlook'!E7*'IEA 2017 Wind'!L12</f>
-        <v>22131.881253117648</v>
+        <v>25092.943156611036</v>
       </c>
       <c r="D15" s="14">
         <f>'Global Renewables Outlook'!F7*'IEA 2017 Wind'!M12</f>
-        <v>24111.720843511761</v>
+        <v>28685.984509620484</v>
       </c>
       <c r="E15" s="14">
         <f>'Global Renewables Outlook'!G7*'IEA 2017 Wind'!N12</f>
-        <v>26091.975113421791</v>
+        <v>32280.896578295553</v>
       </c>
       <c r="F15" s="14">
         <f>'Global Renewables Outlook'!H7*'IEA 2017 Wind'!O12</f>
-        <v>28072.571429375646</v>
+        <v>35877.351696157806</v>
       </c>
       <c r="G15" s="14">
         <f>'Global Renewables Outlook'!I7*'IEA 2017 Wind'!P12</f>
-        <v>31595.372341130736</v>
+        <v>41500.399345603037</v>
       </c>
       <c r="H15" s="14">
         <f>'Global Renewables Outlook'!J7*'IEA 2017 Wind'!Q12</f>
-        <v>35156.211307928854</v>
+        <v>47271.297052958194</v>
       </c>
       <c r="I15" s="14">
         <f>'Global Renewables Outlook'!K7*'IEA 2017 Wind'!R12</f>
-        <v>38749.652659295331</v>
+        <v>53168.916918975345</v>
       </c>
       <c r="J15" s="14">
         <f>'Global Renewables Outlook'!L7*'IEA 2017 Wind'!S12</f>
-        <v>42371.249317112568</v>
+        <v>59175.973602534184</v>
       </c>
       <c r="K15" s="14">
         <f>'Global Renewables Outlook'!M7*'IEA 2017 Wind'!T12</f>
-        <v>46017.327824207787</v>
+        <v>65278.188748566921</v>
       </c>
       <c r="L15" s="14">
         <f>'Global Renewables Outlook'!N7*'IEA 2017 Wind'!U12</f>
-        <v>49595.981805444135</v>
+        <v>71049.265467487989</v>
       </c>
       <c r="M15" s="14">
         <f>'Global Renewables Outlook'!O7*'IEA 2017 Wind'!V12</f>
-        <v>53153.644790943217</v>
+        <v>76843.281959988948</v>
       </c>
       <c r="N15" s="14">
         <f>'Global Renewables Outlook'!P7*'IEA 2017 Wind'!W12</f>
-        <v>56692.535972973987</v>
+        <v>82657.813006761105</v>
       </c>
       <c r="O15" s="14">
         <f>'Global Renewables Outlook'!Q7*'IEA 2017 Wind'!X12</f>
-        <v>60214.572371712304</v>
+        <v>88490.763613868316</v>
       </c>
       <c r="P15" s="14">
         <f>'Global Renewables Outlook'!R7*'IEA 2017 Wind'!Y12</f>
-        <v>63721.418572989911</v>
+        <v>94340.314657407929</v>
       </c>
       <c r="Q15" s="14">
         <f>'Global Renewables Outlook'!S7*'IEA 2017 Wind'!Z12</f>
-        <v>68502.247988834672</v>
+        <v>102124.64145187329</v>
       </c>
       <c r="R15" s="14">
         <f>'Global Renewables Outlook'!T7*'IEA 2017 Wind'!AA12</f>
-        <v>73301.743382330329</v>
+        <v>109994.41091081973</v>
       </c>
       <c r="S15" s="14">
         <f>'Global Renewables Outlook'!U7*'IEA 2017 Wind'!AB12</f>
-        <v>78118.584400074353</v>
+        <v>117943.57917654426</v>
       </c>
       <c r="T15" s="14">
         <f>'Global Renewables Outlook'!V7*'IEA 2017 Wind'!AC12</f>
-        <v>82951.572348484304</v>
+        <v>125966.65928364419</v>
       </c>
       <c r="U15" s="14">
         <f>'Global Renewables Outlook'!W7*'IEA 2017 Wind'!AD12</f>
-        <v>87799.616496860792</v>
+        <v>134058.65846190779</v>
       </c>
       <c r="V15" s="14">
         <f>'Global Renewables Outlook'!X7*'IEA 2017 Wind'!AE12</f>
-        <v>94276.608240385627</v>
+        <v>144693.51270985385</v>
       </c>
       <c r="W15" s="14">
         <f>'Global Renewables Outlook'!Y7*'IEA 2017 Wind'!AF12</f>
-        <v>100789.03999310276</v>
+        <v>155447.2561585744</v>
       </c>
       <c r="X15" s="14">
         <f>'Global Renewables Outlook'!Z7*'IEA 2017 Wind'!AG12</f>
-        <v>107334.83589871647</v>
+        <v>166312.92501484195</v>
       </c>
       <c r="Y15" s="14">
         <f>'Global Renewables Outlook'!AA7*'IEA 2017 Wind'!AH12</f>
-        <v>113912.07911727707</v>
+        <v>177284.08893129442</v>
       </c>
       <c r="Z15" s="14">
         <f>'Global Renewables Outlook'!AB7*'IEA 2017 Wind'!AI12</f>
-        <v>120518.99688493161</v>
+        <v>188354.80088696745</v>
       </c>
       <c r="AA15" s="14">
         <f>'Global Renewables Outlook'!AC7*'IEA 2017 Wind'!AJ12</f>
-        <v>128367.76981657001</v>
+        <v>201424.18353846463</v>
       </c>
       <c r="AB15" s="14">
         <f>'Global Renewables Outlook'!AD7*'IEA 2017 Wind'!AK12</f>
-        <v>136155.58022532647</v>
+        <v>214459.25180322089</v>
       </c>
       <c r="AC15" s="14">
         <f>'Global Renewables Outlook'!AE7*'IEA 2017 Wind'!AL12</f>
-        <v>143887.26913275797</v>
+        <v>227462.73057971572</v>
       </c>
       <c r="AD15" s="14">
         <f>'Global Renewables Outlook'!AF7*'IEA 2017 Wind'!AM12</f>
-        <v>151567.17821208638</v>
+        <v>240437.06369486096</v>
       </c>
       <c r="AE15" s="14">
         <f>'Global Renewables Outlook'!AG7*'IEA 2017 Wind'!AN12</f>
-        <v>159199.21255397078</v>
+        <v>253384.44923339473</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4721,7 +4669,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4816,7 +4764,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4911,7 +4859,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5006,7 +4954,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5101,7 +5049,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5196,7 +5144,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5291,7 +5239,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>0</v>

--- a/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
+++ b/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\endo-learn\BGSaWC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\endo-learn\BGSaWC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A3E957-53A7-4AA8-ACE3-415FAF5084C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9A5949-DCB0-4B2A-81BB-91D45985F59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58575" yWindow="1170" windowWidth="27375" windowHeight="15225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -289,7 +289,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -574,21 +574,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -596,72 +596,72 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -679,12 +679,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2021</v>
       </c>
@@ -695,7 +695,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -709,7 +709,7 @@
         <v>12639</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -723,7 +723,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2019</v>
       </c>
@@ -821,7 +821,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -954,7 +954,7 @@
         <v>12638999.999999885</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1100,12 +1100,12 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="10">
         <v>2020</v>
@@ -1201,7 +1201,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>4167.711163284006</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>548.97100501700004</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1542,12 +1542,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <f>'Global Renewables Outlook'!C7*(1-Wind!B4)</f>
-        <v>656129.54939927824</v>
+        <f>'Global Renewables Outlook'!D7*(1-Wind!C4)</f>
+        <v>775076.77210135513</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1634,13 +1634,13 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="5">
-        <f>'Global Renewables Outlook'!C6</f>
-        <v>505426.66666663717</v>
+        <f>'Global Renewables Outlook'!D6</f>
+        <v>924779.99999991152</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1673,7 +1673,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1721,13 +1721,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="5">
-        <f>'Global Renewables Outlook'!C7*Wind!B4</f>
-        <v>33426.00615628378</v>
+        <f>'Global Renewables Outlook'!D7*Wind!C4</f>
+        <v>51923.227898644931</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1760,7 +1760,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -1850,113 +1850,110 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AE15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="S1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="T1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="U1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="V1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="W1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="X1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Y1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Z1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AB1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AC1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AD1">
-        <v>2049</v>
-      </c>
-      <c r="AE1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2047,11 +2044,8 @@
       <c r="AD2">
         <v>0</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2142,11 +2136,8 @@
       <c r="AD3">
         <v>0</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -2237,11 +2228,8 @@
       <c r="AD4">
         <v>0</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2332,11 +2320,8 @@
       <c r="AD5">
         <v>0</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2427,261 +2412,250 @@
       <c r="AD6">
         <v>0</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <f>'Global Renewables Outlook'!D7*(1-Wind!C4)</f>
-        <v>775076.77210135513</v>
-      </c>
-      <c r="C7" s="5">
         <f>'Global Renewables Outlook'!E7*(1-Wind!D4)</f>
         <v>900121.1891292074</v>
       </c>
-      <c r="D7" s="5">
+      <c r="C7" s="5">
         <f>'Global Renewables Outlook'!F7*(1-Wind!E4)</f>
         <v>1022725.7338070514</v>
       </c>
-      <c r="E7" s="5">
+      <c r="D7" s="5">
         <f>'Global Renewables Outlook'!G7*(1-Wind!F4)</f>
         <v>1136893.5130293544</v>
       </c>
-      <c r="F7" s="5">
+      <c r="E7" s="5">
         <f>'Global Renewables Outlook'!H7*(1-Wind!G4)</f>
         <v>1250773.9377340297</v>
       </c>
-      <c r="G7" s="5">
+      <c r="F7" s="5">
         <f>'Global Renewables Outlook'!I7*(1-Wind!H4)</f>
         <v>1362489.7806542467</v>
       </c>
-      <c r="H7" s="5">
+      <c r="G7" s="5">
         <f>'Global Renewables Outlook'!J7*(1-Wind!I4)</f>
         <v>1478640.9639649629</v>
       </c>
-      <c r="I7" s="5">
+      <c r="H7" s="5">
         <f>'Global Renewables Outlook'!K7*(1-Wind!J4)</f>
         <v>1597697.3311929598</v>
       </c>
-      <c r="J7" s="5">
+      <c r="I7" s="5">
         <f>'Global Renewables Outlook'!L7*(1-Wind!K4)</f>
         <v>1711604.7180015468</v>
       </c>
-      <c r="K7" s="5">
+      <c r="J7" s="5">
         <f>'Global Renewables Outlook'!M7*(1-Wind!L4)</f>
         <v>1819392.3548773606</v>
       </c>
-      <c r="L7" s="5">
+      <c r="K7" s="5">
         <f>'Global Renewables Outlook'!N7*(1-Wind!M4)</f>
         <v>1875002.5415982381</v>
       </c>
-      <c r="M7" s="5">
+      <c r="L7" s="5">
         <f>'Global Renewables Outlook'!O7*(1-Wind!N4)</f>
         <v>1927756.7115537715</v>
       </c>
-      <c r="N7" s="5">
+      <c r="M7" s="5">
         <f>'Global Renewables Outlook'!P7*(1-Wind!O4)</f>
         <v>1987962.964126393</v>
       </c>
-      <c r="O7" s="5">
+      <c r="N7" s="5">
         <f>'Global Renewables Outlook'!Q7*(1-Wind!P4)</f>
         <v>2048972.6988752473</v>
       </c>
-      <c r="P7" s="5">
+      <c r="O7" s="5">
         <f>'Global Renewables Outlook'!R7*(1-Wind!Q4)</f>
         <v>2129959.9682737119</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="P7" s="5">
         <f>'Global Renewables Outlook'!S7*(1-Wind!R4)</f>
         <v>2215932.3022829583</v>
       </c>
-      <c r="R7" s="5">
+      <c r="Q7" s="5">
         <f>'Global Renewables Outlook'!T7*(1-Wind!S4)</f>
         <v>2299960.4441534309</v>
       </c>
-      <c r="S7" s="5">
+      <c r="R7" s="5">
         <f>'Global Renewables Outlook'!U7*(1-Wind!T4)</f>
         <v>2383142.2667729277</v>
       </c>
-      <c r="T7" s="5">
+      <c r="S7" s="5">
         <f>'Global Renewables Outlook'!V7*(1-Wind!U4)</f>
         <v>2468216.8235020074</v>
       </c>
-      <c r="U7" s="5">
+      <c r="T7" s="5">
         <f>'Global Renewables Outlook'!W7*(1-Wind!V4)</f>
         <v>2550880.1051850733</v>
       </c>
-      <c r="V7" s="5">
+      <c r="U7" s="5">
         <f>'Global Renewables Outlook'!X7*(1-Wind!W4)</f>
         <v>2634875.7242717026</v>
       </c>
-      <c r="W7" s="5">
+      <c r="V7" s="5">
         <f>'Global Renewables Outlook'!Y7*(1-Wind!X4)</f>
         <v>2719858.0306125535</v>
       </c>
-      <c r="X7" s="5">
+      <c r="W7" s="5">
         <f>'Global Renewables Outlook'!Z7*(1-Wind!Y4)</f>
         <v>2805844.6273935628</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="X7" s="5">
         <f>'Global Renewables Outlook'!AA7*(1-Wind!Z4)</f>
         <v>2890101.1357675246</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Y7" s="5">
         <f>'Global Renewables Outlook'!AB7*(1-Wind!AA4)</f>
         <v>2972372.4111485863</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="Z7" s="5">
         <f>'Global Renewables Outlook'!AC7*(1-Wind!AB4)</f>
         <v>3062242.8847385035</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AA7" s="5">
         <f>'Global Renewables Outlook'!AD7*(1-Wind!AC4)</f>
         <v>3154247.9605017747</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AB7" s="5">
         <f>'Global Renewables Outlook'!AE7*(1-Wind!AD4)</f>
         <v>3241643.3280328619</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AC7" s="5">
         <f>'Global Renewables Outlook'!AF7*(1-Wind!AE4)</f>
         <v>3329824.154709897</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AD7" s="5">
         <f>'Global Renewables Outlook'!AG7*(1-Wind!AF4)</f>
         <v>3423108.1235600994</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="5">
-        <f>'Global Renewables Outlook'!D6</f>
-        <v>924779.99999991152</v>
-      </c>
-      <c r="C8" s="5">
         <f>'Global Renewables Outlook'!E6</f>
         <v>1344133.3333333023</v>
       </c>
-      <c r="D8" s="5">
+      <c r="C8" s="5">
         <f>'Global Renewables Outlook'!F6</f>
         <v>1763486.6666665766</v>
       </c>
-      <c r="E8" s="5">
+      <c r="D8" s="5">
         <f>'Global Renewables Outlook'!G6</f>
         <v>2182839.9999999674</v>
       </c>
-      <c r="F8" s="5">
+      <c r="E8" s="5">
         <f>'Global Renewables Outlook'!H6</f>
         <v>2602193.3333332418</v>
       </c>
-      <c r="G8" s="5">
+      <c r="F8" s="5">
         <f>'Global Renewables Outlook'!I6</f>
         <v>3021546.6666666325</v>
       </c>
-      <c r="H8" s="5">
+      <c r="G8" s="5">
         <f>'Global Renewables Outlook'!J6</f>
         <v>3440899.9999999069</v>
       </c>
-      <c r="I8" s="5">
+      <c r="H8" s="5">
         <f>'Global Renewables Outlook'!K6</f>
         <v>3860253.3333332976</v>
       </c>
-      <c r="J8" s="5">
+      <c r="I8" s="5">
         <f>'Global Renewables Outlook'!L6</f>
         <v>4279606.666666572</v>
       </c>
-      <c r="K8" s="5">
+      <c r="J8" s="5">
         <f>'Global Renewables Outlook'!M6</f>
         <v>4698959.9999999627</v>
       </c>
-      <c r="L8" s="5">
+      <c r="K8" s="5">
         <f>'Global Renewables Outlook'!N6</f>
         <v>5095961.9999999413</v>
       </c>
-      <c r="M8" s="5">
+      <c r="L8" s="5">
         <f>'Global Renewables Outlook'!O6</f>
         <v>5492963.9999999199</v>
       </c>
-      <c r="N8" s="5">
+      <c r="M8" s="5">
         <f>'Global Renewables Outlook'!P6</f>
         <v>5889965.9999998985</v>
       </c>
-      <c r="O8" s="5">
+      <c r="N8" s="5">
         <f>'Global Renewables Outlook'!Q6</f>
         <v>6286967.9999998771</v>
       </c>
-      <c r="P8" s="5">
+      <c r="O8" s="5">
         <f>'Global Renewables Outlook'!R6</f>
         <v>6683969.9999999721</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="P8" s="5">
         <f>'Global Renewables Outlook'!S6</f>
         <v>7080971.9999999506</v>
       </c>
-      <c r="R8" s="5">
+      <c r="Q8" s="5">
         <f>'Global Renewables Outlook'!T6</f>
         <v>7477973.9999999292</v>
       </c>
-      <c r="S8" s="5">
+      <c r="R8" s="5">
         <f>'Global Renewables Outlook'!U6</f>
         <v>7874975.9999999078</v>
       </c>
-      <c r="T8" s="5">
+      <c r="S8" s="5">
         <f>'Global Renewables Outlook'!V6</f>
         <v>8271977.9999998864</v>
       </c>
-      <c r="U8" s="5">
+      <c r="T8" s="5">
         <f>'Global Renewables Outlook'!W6</f>
         <v>8668979.9999999814</v>
       </c>
-      <c r="V8" s="5">
+      <c r="U8" s="5">
         <f>'Global Renewables Outlook'!X6</f>
         <v>9065981.999999959</v>
       </c>
-      <c r="W8" s="5">
+      <c r="V8" s="5">
         <f>'Global Renewables Outlook'!Y6</f>
         <v>9462983.9999999385</v>
       </c>
-      <c r="X8" s="5">
+      <c r="W8" s="5">
         <f>'Global Renewables Outlook'!Z6</f>
         <v>9859985.999999918</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="X8" s="5">
         <f>'Global Renewables Outlook'!AA6</f>
         <v>10256987.999999896</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Y8" s="5">
         <f>'Global Renewables Outlook'!AB6</f>
         <v>10653989.999999873</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="Z8" s="5">
         <f>'Global Renewables Outlook'!AC6</f>
         <v>11050991.99999997</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AA8" s="5">
         <f>'Global Renewables Outlook'!AD6</f>
         <v>11447993.999999948</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AB8" s="5">
         <f>'Global Renewables Outlook'!AE6</f>
         <v>11844995.999999925</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AC8" s="5">
         <f>'Global Renewables Outlook'!AF6</f>
         <v>12241997.999999905</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AD8" s="5">
         <f>'Global Renewables Outlook'!AG6</f>
         <v>12638999.999999885</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2772,11 +2746,8 @@
       <c r="AD9">
         <v>0</v>
       </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2867,11 +2838,8 @@
       <c r="AD10">
         <v>0</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -2962,11 +2930,8 @@
       <c r="AD11">
         <v>0</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -3057,11 +3022,8 @@
       <c r="AD12">
         <v>0</v>
       </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -3152,11 +3114,8 @@
       <c r="AD13">
         <v>0</v>
       </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -3247,136 +3206,129 @@
       <c r="AD14">
         <v>0</v>
       </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="5">
-        <f>'Global Renewables Outlook'!D7*Wind!B4</f>
-        <v>40088.585855819823</v>
-      </c>
-      <c r="C15" s="5">
         <f>'Global Renewables Outlook'!E7*Wind!C4</f>
         <v>60552.682810726183</v>
       </c>
-      <c r="D15" s="5">
+      <c r="C15" s="5">
         <f>'Global Renewables Outlook'!F7*Wind!D4</f>
         <v>73490.060248979091</v>
       </c>
-      <c r="E15" s="5">
+      <c r="D15" s="5">
         <f>'Global Renewables Outlook'!G7*Wind!E4</f>
         <v>89037.595218580886</v>
       </c>
-      <c r="F15" s="5">
+      <c r="E15" s="5">
         <f>'Global Renewables Outlook'!H7*Wind!F4</f>
         <v>113800.59291611612</v>
       </c>
-      <c r="G15" s="5">
+      <c r="F15" s="5">
         <f>'Global Renewables Outlook'!I7*Wind!G4</f>
         <v>138582.86918859708</v>
       </c>
-      <c r="H15" s="5">
+      <c r="G15" s="5">
         <f>'Global Renewables Outlook'!J7*Wind!H4</f>
         <v>165505.04431378981</v>
       </c>
-      <c r="I15" s="5">
+      <c r="H15" s="5">
         <f>'Global Renewables Outlook'!K7*Wind!I4</f>
         <v>187424.14160128735</v>
       </c>
-      <c r="J15" s="5">
+      <c r="I15" s="5">
         <f>'Global Renewables Outlook'!L7*Wind!J4</f>
         <v>206118.71382443423</v>
       </c>
-      <c r="K15" s="5">
+      <c r="J15" s="5">
         <f>'Global Renewables Outlook'!M7*Wind!K4</f>
         <v>230285.87337236118</v>
       </c>
-      <c r="L15" s="5">
+      <c r="K15" s="5">
         <f>'Global Renewables Outlook'!N7*Wind!L4</f>
         <v>255332.93188794897</v>
       </c>
-      <c r="M15" s="5">
+      <c r="L15" s="5">
         <f>'Global Renewables Outlook'!O7*Wind!M4</f>
         <v>291237.77865488769</v>
       </c>
-      <c r="N15" s="5">
+      <c r="M15" s="5">
         <f>'Global Renewables Outlook'!P7*Wind!N4</f>
         <v>330031.93771321455</v>
       </c>
-      <c r="O15" s="5">
+      <c r="N15" s="5">
         <f>'Global Renewables Outlook'!Q7*Wind!O4</f>
         <v>361004.00300979265</v>
       </c>
-      <c r="P15" s="5">
+      <c r="O15" s="5">
         <f>'Global Renewables Outlook'!R7*Wind!P4</f>
         <v>391092.00464981049</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="P15" s="5">
         <f>'Global Renewables Outlook'!S7*Wind!Q4</f>
         <v>400441.03425807011</v>
       </c>
-      <c r="R15" s="5">
+      <c r="Q15" s="5">
         <f>'Global Renewables Outlook'!T7*Wind!R4</f>
         <v>404643.31207967794</v>
       </c>
-      <c r="S15" s="5">
+      <c r="R15" s="5">
         <f>'Global Renewables Outlook'!U7*Wind!S4</f>
         <v>410876.84215022629</v>
       </c>
-      <c r="T15" s="5">
+      <c r="S15" s="5">
         <f>'Global Renewables Outlook'!V7*Wind!T4</f>
         <v>417999.63597350329</v>
       </c>
-      <c r="U15" s="5">
+      <c r="T15" s="5">
         <f>'Global Renewables Outlook'!W7*Wind!U4</f>
         <v>423182.47386574256</v>
       </c>
-      <c r="V15" s="5">
+      <c r="U15" s="5">
         <f>'Global Renewables Outlook'!X7*Wind!V4</f>
         <v>430864.87645209447</v>
       </c>
-      <c r="W15" s="5">
+      <c r="V15" s="5">
         <f>'Global Renewables Outlook'!Y7*Wind!W4</f>
         <v>437184.66041645262</v>
       </c>
-      <c r="X15" s="5">
+      <c r="W15" s="5">
         <f>'Global Renewables Outlook'!Z7*Wind!X4</f>
         <v>442500.01644445065</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="X15" s="5">
         <f>'Global Renewables Outlook'!AA7*Wind!Y4</f>
         <v>446794.33610616927</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="Y15" s="5">
         <f>'Global Renewables Outlook'!AB7*Wind!Z4</f>
         <v>452877.65354890848</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="Z15" s="5">
         <f>'Global Renewables Outlook'!AC7*Wind!AA4</f>
         <v>461007.18750435935</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AA15" s="5">
         <f>'Global Renewables Outlook'!AD7*Wind!AB4</f>
         <v>461346.81313483516</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AB15" s="5">
         <f>'Global Renewables Outlook'!AE7*Wind!AC4</f>
         <v>459512.7777562656</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AC15" s="5">
         <f>'Global Renewables Outlook'!AF7*Wind!AD4</f>
         <v>462417.53814992314</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AD15" s="5">
         <f>'Global Renewables Outlook'!AG7*Wind!AE4</f>
         <v>464527.61322951212</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -3467,11 +3419,8 @@
       <c r="AD16">
         <v>0</v>
       </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -3562,11 +3511,8 @@
       <c r="AD17">
         <v>0</v>
       </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3657,11 +3603,8 @@
       <c r="AD18">
         <v>0</v>
       </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3752,11 +3695,8 @@
       <c r="AD19">
         <v>0</v>
       </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3847,11 +3787,8 @@
       <c r="AD20">
         <v>0</v>
       </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -3942,11 +3879,8 @@
       <c r="AD21">
         <v>0</v>
       </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -4037,11 +3971,8 @@
       <c r="AD22">
         <v>0</v>
       </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -4132,11 +4063,8 @@
       <c r="AD23">
         <v>0</v>
       </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
@@ -4227,11 +4155,8 @@
       <c r="AD24">
         <v>0</v>
       </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -4320,9 +4245,6 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
         <v>0</v>
       </c>
     </row>
